--- a/softWare2/tmp/wow.xlsx
+++ b/softWare2/tmp/wow.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,30 +415,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>ly/type4/Result (3).json</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Cassandra Mata</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>ly/type4/Result.json</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>2010/10/30</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>phish@icloud.com</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>46-953-3214</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>QEmI4dbFfv</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>89.24</t>
         </is>
